--- a/mosip_master/xlsx/device_master.xlsx
+++ b/mosip_master/xlsx/device_master.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Madagascar\MDG_Master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Seirra Leone\SLE_Master_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B659609A-9394-4579-A098-144FFADA108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BDDD5-FBE0-4D02-86B9-99D5C1675BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6AA6FF3-6CBE-4FCC-AB15-9379E03883C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$37</definedName>
+  </definedNames>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>lang_code</t>
   </si>
@@ -57,7 +60,7 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>fra</t>
+    <t>eng</t>
   </si>
   <si>
     <t>Mock IRIS Scanner</t>
@@ -66,44 +69,52 @@
     <t>85-BB-97-4B-14-05</t>
   </si>
   <si>
-    <t>AMB1</t>
-  </si>
-  <si>
     <t>Mock FingerPrint Scanner</t>
   </si>
   <si>
     <t>Mock Camera</t>
+  </si>
+  <si>
+    <t>SOU</t>
+  </si>
+  <si>
+    <t>EST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -115,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -124,6 +135,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -187,27 +213,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -516,37 +564,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70976CA-D2A0-419E-B573-BB445598349A}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="1"/>
+    <col min="6" max="7" width="8.453125" style="1"/>
+    <col min="9" max="10" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -558,113 +601,475 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
         <v>1001</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
         <v>3456789012</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4">
+      <c r="F2" s="7"/>
+      <c r="G2" s="5">
         <v>327</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4">
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1234567890</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11">
+        <v>165</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="11">
         <v>10000</v>
       </c>
-      <c r="J2" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="J3" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3001</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2345678901</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11">
+        <v>736</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3456789012</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11">
+        <v>327</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10001</v>
+      </c>
+      <c r="J5" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11">
         <v>2001</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1234567890</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11">
+        <v>165</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="11">
+        <v>10001</v>
+      </c>
+      <c r="J6" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3001</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2345678901</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11">
+        <v>736</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="11">
+        <v>10001</v>
+      </c>
+      <c r="J7" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3456789012</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11">
+        <v>327</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="11">
+        <v>10002</v>
+      </c>
+      <c r="J8" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11">
         <v>1234567890</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4">
+      <c r="F9" s="13"/>
+      <c r="G9" s="11">
         <v>165</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="11">
+        <v>10002</v>
+      </c>
+      <c r="J9" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3001</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2345678901</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11">
+        <v>736</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="11">
+        <v>10002</v>
+      </c>
+      <c r="J10" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1001</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3456789012</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11">
+        <v>327</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11">
+        <v>10003</v>
+      </c>
+      <c r="J11" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="J3" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1234567890</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11">
+        <v>165</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="11">
+        <v>10003</v>
+      </c>
+      <c r="J12" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
         <v>3001</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11">
         <v>2345678901</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4">
+      <c r="F13" s="13"/>
+      <c r="G13" s="11">
         <v>736</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="11">
+        <v>10003</v>
+      </c>
+      <c r="J13" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3456789012</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11">
+        <v>327</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11">
+        <v>10004</v>
+      </c>
+      <c r="J14" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="7" t="b">
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1234567890</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11">
+        <v>165</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="11">
+        <v>10004</v>
+      </c>
+      <c r="J15" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3001</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2345678901</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11">
+        <v>736</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="11">
+        <v>10004</v>
+      </c>
+      <c r="J16" s="15" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:J37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/device_master.xlsx
+++ b/mosip_master/xlsx/device_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Seirra Leone\SLE_Master_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BDDD5-FBE0-4D02-86B9-99D5C1675BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9E39E-6A1E-42B1-A1F4-551DBD1A40CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,18 +574,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.453125" style="1"/>
-    <col min="6" max="7" width="8.453125" style="1"/>
-    <col min="9" max="10" width="8.453125" style="1"/>
+    <col min="2" max="2" width="8.44140625" style="1"/>
+    <col min="6" max="7" width="8.44140625" style="1"/>
+    <col min="9" max="10" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -707,12 +707,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="11">
-        <v>1001</v>
+        <v>4001</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -737,12 +737,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11">
-        <v>2001</v>
+        <v>5001</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
@@ -767,12 +767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>14</v>
@@ -797,12 +797,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="11">
-        <v>1001</v>
+        <v>7001</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
@@ -827,12 +827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="11">
-        <v>2001</v>
+        <v>8001</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
@@ -857,12 +857,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="11">
-        <v>3001</v>
+        <v>9001</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>14</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -917,12 +917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>2001</v>
+        <v>1101</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -947,12 +947,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="11">
-        <v>3001</v>
+        <v>1201</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>14</v>
@@ -977,12 +977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="11">
-        <v>1001</v>
+        <v>1301</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
@@ -1007,12 +1007,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="11">
-        <v>2001</v>
+        <v>1401</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
@@ -1037,12 +1037,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="11">
-        <v>3001</v>
+        <v>1501</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>14</v>

--- a/mosip_master/xlsx/device_master.xlsx
+++ b/mosip_master/xlsx/device_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9E39E-6A1E-42B1-A1F4-551DBD1A40CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC9FED-198C-4671-AF70-860D53524018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>11</v>
